--- a/biology/Zoologie/Choucador_à_tête_pourprée/Choucador_à_tête_pourprée.xlsx
+++ b/biology/Zoologie/Choucador_à_tête_pourprée/Choucador_à_tête_pourprée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Choucador_%C3%A0_t%C3%AAte_pourpr%C3%A9e</t>
+          <t>Choucador_à_tête_pourprée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylopsar purpureiceps
 Le Choucador à tête pourprée (Hylopsar purpureiceps) est une espèce d'oiseaux de la famille des Sturnidae. Son aire s'étend du Bénin à travers l'Afrique centrale, jusqu'en Ouganda.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Choucador_%C3%A0_t%C3%AAte_pourpr%C3%A9e</t>
+          <t>Choucador_à_tête_pourprée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hylopsar purpureiceps a été décrite pour la première fois en 1851 par les frères Jules (1807-1873) et Édouard Verreaux (1839-1926) sous le protonyme Lamprocolius purpureiceps[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hylopsar purpureiceps a été décrite pour la première fois en 1851 par les frères Jules (1807-1873) et Édouard Verreaux (1839-1926) sous le protonyme Lamprocolius purpureiceps.
 </t>
         </is>
       </c>
